--- a/src/test/resources/Scmflex.xlsx
+++ b/src/test/resources/Scmflex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
